--- a/CODES/main.xlsx
+++ b/CODES/main.xlsx
@@ -11,6 +11,7 @@
     <sheet name="MultiFactor_20240704_104749" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="MultiFactor_20240704_152820" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="MultiFactor_20240704_164835" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MultiFactor_20240708_092927" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -12813,4 +12814,2439 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="31" customWidth="1" min="14" max="14"/>
+    <col width="32" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore ROE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore D/E</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore EPSVar</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Quality ZScore</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore TTMPE</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore Bv/P</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore DPS/Price</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Value ZScore</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore LTEPS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore LTSPS</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore internalG</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Growth ZScore</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore 6 month price momentum</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>ZScore 12 month price momentum</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Momentum ZScore</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Overall ZScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ashok Leyland</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.7842085557877949</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.563535179491123</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2759742107731163</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.013683943086915</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.7032194848307094</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2612824355962851</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.001714366259092</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.70583025670938</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.066735732738864</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.733802834022184</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.487101711745241</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.3237350534216945</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.4837861338943525</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.4037605936580235</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4757079705577719</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Exide Inds.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1627888056106206</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4172939648205892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2842285837719417</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1777821351840304</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0329172327079677</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.251793441057701</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0625716220860867</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3815805134670034</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.055914266373828</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.002613953887338573</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.08369130715671085</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7052072344822561</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.3863889101502332</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.6641049379336714</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.5252469240419524</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1848307397728344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eicher Motors</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3665566755629941</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6548141684109972</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3197693154279363</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4425762526026361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3424173168834538</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.78163583979766</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.260535198504088</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.4569141572111166</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.0800068596744556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.288720940385336</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3192544403966879</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.01632620868882421</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.323712487674121</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.3713635560637458</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.3475380218689333</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.09455053379155952</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Escorts Kubota</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1121629168984377</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.4764733235311307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.3164520356011232</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2986791310901283</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1990251856556343</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.2927649419883564</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.4465434347007348</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.3096500755737594</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9722887713637051</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.542277591158311</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3216945409421984</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6059660981431908</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2898039699731271</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.006411921656818012</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1416960241581545</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1841727944544286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gabriel India</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2521864419260815</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.501867836228614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3140982027830035</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3524903187094407</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1579904478444464</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1429866213690346</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03659514212166617</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01702765963703575</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.03261844472764981</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.08988330761349574</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3216123862934764</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.08723468272451806</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.6250790315385748</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.4411920641574048</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.5331355478479898</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.02760955151276669</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Federal-Mogul Go</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1360949573785666</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.6495910924407619</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.1744746848758282</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2270303705795478</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2362362676729209</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5124115169067823</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.6212968711045701</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1138901352173338</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.2615467657471792</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.6034774845165498</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1285272532469696</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.2430440090155306</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3592295452803782</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.5313534246496766</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.4452914849650274</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.143798814654586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hero Motocorp</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4598355220701722</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.4282969650575734</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3332328893162744</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4030505742265266</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1732085923981239</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2766819287381952</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.126675490562239</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2233390399105535</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1663377723697766</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.7780324455563534</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.133563765352544</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.3557182144819624</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.386677974496809</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.6144296658459035</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.5005538201713562</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.05747060512905965</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M &amp; M</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3613316399879443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9624814785776106</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1216697986106142</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1582284131930872</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1225687263615503</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1203698444423551</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.01681475703023965</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.006274500853313509</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.366578862080998</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3058374502814616</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4594610997694858</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.373519546003542</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2781729015753574</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.4255847399997754</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3518788207875664</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.03571554720760626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2333779493166477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6003376827874525</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3307290756413875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.384266753556011</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2993924819452608</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.5799255092751486</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.007351140017355502</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.2926008133084624</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.03508256831112098</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.698342031876961</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08700485950684173</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.1901640193394694</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.06859922422162561</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.3483516980894871</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.2084754611555564</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.07674338506186931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sundram Fasten.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6574981999549876</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1805443455801637</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3119529155646867</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3794985021629466</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3530668892251919</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.9382834936650466</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.3187125000959188</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.5313207513854319</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3054582686872522</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2497496277262057</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5801785827689785</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.374677538130204</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1683060596213437</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2233730543648914</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1958395569931176</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.006753932978650276</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SML ISUZU</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.31079882490924</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2084735504517617</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.821359883869131</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.0514181565303641</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.6615902747320052</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.6212968711045701</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.4063847664710497</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2.172627939811574</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.864683345223745</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-2.652312724061655</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.4396312656776753</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.3522695005734832</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.3959503831255792</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-1.319001939381854</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Talbros Auto.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6081071457058536</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1355738913235333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06144065369349359</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2251393265008448</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1126285753701359</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1456254655835475</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5383650125038479</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1885494278966957</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8402144021620324</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3926439741779321</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4851435559500409</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5669406376557018</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.7160738516086653</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6498703654810799</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6829721085448726</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4159003751495287</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tata Motors</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.412525687585235</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.924721345929125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.751291521059739</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.1188335700161335</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.4598900566823039</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.6212968711045701</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.3175766080643444</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1.986671925038146</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.8105559259495487</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-2.267829488434073</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.671468922009183</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5988528706093594</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.01226688297990515</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2932929938147271</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-1.111761014329635</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Wheels India</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1637933484751845</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7396853899388208</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1932587913157104</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2538197748171844</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1426192979466171</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5208677491293805</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06279382161392125</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1455439500229059</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.04691257972296341</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3231118932593251</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2421385824716505</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.171051505682644</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.7002550225666035</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.1410133212452658</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.4206341719059347</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.08946462275439228</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Automotive Axles</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2730158849027146</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.539374725117027</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01629368526875126</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2627119851678268</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2985459557511702</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.6151203631373183</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.2519260926363655</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.3846454958032018</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.3700067014132447</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1.407763719104066</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2882434901681703</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.4915438870152163</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.01723534143755467</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.1061232548997082</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.06167929816863145</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.1687891739548057</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rico Auto Inds</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2634542666569708</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4651003487760622</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2408044541480315</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.1609575532240505</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1298774649871135</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.40780512513063</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.0878157644588017</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.052736925575956</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.15670083095433</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6507745895644865</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.06526037219609834</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1884915824833607</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.7267668332188596</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.5246586177445745</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.625712725481717</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0193937660967069</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lumax Industries</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1960108167722981</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3350182416593307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.2681269839760326</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04260945449937004</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1128022958089407</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5128958207130427</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.02101359959558393</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1389653510848964</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1445888611152076</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.6192766047543128</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3240852582922838</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.145127468500488</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.7226277613740598</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.7172876568718833</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.7199577091229716</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1708775930097983</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Banco Products</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5236692372952677</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.4133041488329746</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.3135719959497803</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4126799760857475</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06162943349100387</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.840203459824337</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.90692942869</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6328766365057777</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4310775642849858</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.2586639765520528</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2657457739987746</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.7332331901948693</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.4512376788287307</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.5922354345117999</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4982799360656806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JTEKT India</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.1199651375372316</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.4624265128193443</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.1651637872677469</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1675163036414537</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3479404080460267</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.2623349792745431</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.3925072095146166</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.3309182569556115</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.2594326343654384</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.3611579567602426</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.04052936221234273</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.1914202055414017</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.6584084774804947</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.5302074829074367</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.5943079801939657</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.2372825347623813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The Hi-Tech Gear</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5948822052357152</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7122387218936469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.1804974447500514</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.3717857491851725</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.023779243200226</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.239382822195494</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3265910817398057</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.299068424606452</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.03864362757234</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6332934673052003</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.4177689757272506</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.2716293148781488</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.4797219253284832</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.187012971649134</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.3333674484888086</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.08057147801358054</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Subros</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2929901434777652</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5511507936774955</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.2936872004179037</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1821097907038192</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.556356847306734</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1500270788421103</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5311284707556458</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.4083790909784818</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.4891727062967829</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.2716636294983177</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.07780167971785491</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.2767505451192754</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.09791356534636356</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.3633001809858698</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.2306068731661167</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.1834066796400137</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jamna Auto Inds.</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8789885012164641</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2072653067518412</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.2224818997257221</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4318827835390291</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2431356119971332</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.8296889853719164</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01506030321723519</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.3490622170700988</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1151395823190549</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1.273328162214498</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.54838873046381</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.2012339503124388</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.07234000359700364</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.04381473044768465</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.0142626365746595</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.033169005104542</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Steel Str. Wheel</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9510044830595534</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3083737111977172</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.107931845285594</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1111825004676534</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1789124623953079</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3555241539651556</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02159163306372414</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.391977924471756</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.685908968251257</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.8153085922597751</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.28475451004432</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.6291070947080137</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8473144828464938</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.10910369406924</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.07687949797292248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>India Nipp.Elec.</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1302323637240793</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5122055720430869</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.3181544360584295</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3169954827024466</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1677477104399017</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2979268315793919</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0004636471466571162</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.04280610641763492</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.174172528748698</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.02745092710988391</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2010954757970197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1147796355538251</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02044761557727402</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.2924087387589184</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.1359805615908222</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.08465016577077113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L G Balakrishnan</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8541853309836008</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6210424910095323</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.2858726600388046</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5811631590705395</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07144925742736424</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7644247037014086</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5573617075443432</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4126112607600679</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.149891090212709</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.6110761202572025</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8538821501671139</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8629002890102184</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3014191872189541</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4981587526652231</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.3997889699420886</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.5641159196957286</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>India Motor Part</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2240515503577064</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4558999325526329</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.3217819359924265</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1826980050018265</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1376166615136775</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.802947584716282</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1054307190470699</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9143513419423926</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.483522149757582</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2990009606671076</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.06167739071057584</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5678790875056576</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.2550280142285237</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.2951041128119243</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.275066063520224</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3474655927324132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Amara Raja Ener.</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2227821477804501</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.4318037786024932</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.322461501922099</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.322425651340664</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1572128223503839</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2063464497681738</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.2671719334926035</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.07195264100468851</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.477737828201117</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4751647026385956</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.381020093190795</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4401944659300675</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.5710267839364146</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.7608635564666782</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.6659451702015464</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.006180576516124137</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VST Till. Tract.</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3631402197313561</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4878774494079327</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.2705839539651397</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3701285356244614</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1823468112485039</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.2265589113515062</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.2696353343582343</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.2239185487962206</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.3271705277505067</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.08827981338948915</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4829164081214923</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.2964610272562911</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.2541953159718021</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.002679579217912011</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.1284374475948571</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.07855839162241871</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Automotive Stamp</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9430359575392181</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.621690592594304</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.2977146270597321</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.274605588473774</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.9906099414652838</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1.504429493797871</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.6212968711045701</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.374588419734262</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.132735559982046</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6835912901983107</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.264508510574705</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.016675669049171</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.479173209447171</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.07678906498532471</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4948666157264852</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.330692515289336</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2470941217900638</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4986662650587971</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.607206983635041</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.286341036287702</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4594307140439083</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4553998217122527</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.5392883381319739</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.05219769614133872</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.3454723324752366</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04877998766263714</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.2018589517354272</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.07653948203639505</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.158587101691369</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Suprajit Engg.</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4929937362468557</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.3105397822172141</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.3036755835830341</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3653790036755443</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2532247791686977</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.649870836375516</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.3745891413363269</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.4216359697705784</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3843361488033195</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1759863275830872</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5982704872471191</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.3823356779990635</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.320204117164485</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.3113615883400103</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.3157828527522477</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.002573964787945443</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TVS Motor Co.</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6748734979936138</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.798847844587355</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.3086913229295323</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.5990433978091891</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3235920125707342</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.9083480093532721</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.3682898430336853</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.5280758554360383</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3070450217044342</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6021374945087975</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6846382901076343</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.5259608660858858</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.008924152063234743</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.3694982449388453</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.18921119850104</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.1975923964150954</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Uno Minda</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1585062772165984</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2400493100107616</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.08353544401159699</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1039566472612018</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6319664549264108</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.968673303706952</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.4854660465952499</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.6884149157254422</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2357017244761947</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.107267784600525</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.2535486193175328</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5268509823701034</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1605235185129499</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.1977997528499483</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.1791616356814491</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.03038858739682802</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Atul Auto</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.207093928300685</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.206779737263084</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0002967566969842172</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.4666762393460485</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1097034501981384</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.113368797653886</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.6212968711045701</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1985858743266598</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1.787760519108704</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-2.554461121566206</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.9988936562703058</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1.762568047991921</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.4381108956761369</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.4726269005105592</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.455368898093348</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.6215068277761646</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Minda Corp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3019837258450953</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.3178951593851825</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.2583733532705142</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2898232387052613</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.300289445307914</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.5216986768017248</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.4171784351115991</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.4089249638830085</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.1739597960402965</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.4427717376544246</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4338878778989922</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0603384064125905</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7061276787349982</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.485052421266977</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.5955900500009876</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1040374796026625</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Olectra Greentec</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.2358884995090649</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.6173109270402053</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.1847847315509794</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1868483624970995</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.2099767467562</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.9293510108290962</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.5960789231912872</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.9026842046562724</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.724224955854653</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.632096276256685</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.006953968523011026</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.765291196984148</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.421482932886313</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.019917099774523</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.720700016330418</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6925388427888481</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JBM Auto</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6578004635639476</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.061963498037113</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.2823988002898156</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.04018219728050536</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2837842819359884</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.8274780149828961</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.5247688753045554</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.5398902868337352</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6462007072803531</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.310567038248427</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8664119230226583</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.9316492906219747</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.803589550073118</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.108177214211005</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.455883382142061</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.4518650471624489</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lumax Auto Tech.</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3458127412974106</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.3986675139296418</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.2941527636524525</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3427488962302366</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.142707572679197</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.140616993037043</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.2604752803231378</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.08526695122472466</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1.25212945432736</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.3207979041022143</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3106363101626806</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.2048294292206133</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.05655044300566407</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.2853009998346737</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.1709257214201689</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.01306517420354476</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fiem Industries</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4627116595813513</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.482928196542486</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.3147743554250144</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4159366898111211</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1131726712583103</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3510653768761945</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.2544448887313</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.4924714061352308</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7128400511614471</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.09009669595675025</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1504975517460563</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.2551694992937485</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.3196475837433768</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.4450271178773177</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.06268976706697046</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3065668405767677</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rane (Madras)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.8398318762882451</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.05954964400762</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.09794484629195394</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.9244741024212907</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1155005806581562</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1042412629807606</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.6212968711045701</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.2013123926309676</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1.751603548967593</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.004935340227230704</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.6122836520099416</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.7817114385975725</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.475696216582463</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.5224522351748155</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.4990742258786393</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.6016430398821175</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ZF Commercial</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.0973041785582752</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.7624873512475299</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.3105661986226077</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3219972925329146</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.856971413349396</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.9144306575531481</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.5549236763039153</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.7676874965781316</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.6116640109827728</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.7793588721825713</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.08942390862915661</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.4295276615969419</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.1502404378209699</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.1359529164791403</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.1430966771500551</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.2545786356980535</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bajaj Auto</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7298589387399917</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.4755145365788622</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.3341652712355385</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5080477863629496</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1756329952013346</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.4786760435862812</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9964520910822621</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1129072072572333</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4072685909935598</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.05395743444906338</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.01391397486454518</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1476129766907657</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.3531625999773083</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.4755055280838191</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.4143340640305637</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.08855847657009619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>